--- a/data/trans_orig/P32E$bar_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D88BFD-01E6-4462-819E-2FCDD0A03863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{130768DA-4B51-40B8-AB4A-7183FF71F626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7EE30ED7-B3FD-4A18-8391-9F157BA2601F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D3483FF1-B271-41A4-8EF6-CC39BA78BC73}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="243">
-  <si>
-    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="217">
+  <si>
+    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,709 +59,631 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Bares, pub, restaurantes</t>
   </si>
   <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>Casas de amistades, familiares</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>En la calle</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>Conciertos, eventos</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>Casas de amistades, familiares</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>En la calle</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>Conciertos, eventos</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1176,8 +1098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B30224-E6AC-466A-8CBF-22FEBC3A6F00}">
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B880B917-3F69-4D5F-8EC2-AE8A146C7650}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1300,162 +1222,162 @@
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1464,165 +1386,165 @@
         <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1631,165 +1553,165 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>120</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1798,165 +1720,165 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1965,310 +1887,142 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="A29" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>242</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>

--- a/data/trans_orig/P32E$bar_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
+          <t>Población según los lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
